--- a/Tanya/Rcalc_Fucbys/Data/FucBys_2023.xlsx
+++ b/Tanya/Rcalc_Fucbys/Data/FucBys_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144" activeTab="2"/>
+    <workbookView windowWidth="27975" windowHeight="11895" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперимент FucBys Pilot" sheetId="2" r:id="rId1"/>
@@ -146,11 +146,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -177,6 +177,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -186,23 +201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,6 +223,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -232,8 +239,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,15 +272,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,9 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,28 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,13 +322,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,25 +364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,13 +394,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,49 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,13 +466,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,25 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,17 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +565,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -579,17 +594,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,164 +613,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -770,55 +770,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -851,8 +851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8145780" y="190500"/>
-          <a:ext cx="4800600" cy="2796540"/>
+          <a:off x="9033510" y="188595"/>
+          <a:ext cx="5344160" cy="2767965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1163,10 +1163,10 @@
       <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="14.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="14.775" customWidth="1"/>
+    <col min="4" max="4" width="14.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2491,10 +2491,10 @@
       <selection pane="bottomLeft" activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="10.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="2" width="10.225" customWidth="1"/>
+    <col min="5" max="5" width="21.5583333333333" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4933,13 +4933,13 @@
   <sheetPr/>
   <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="6" max="6" width="21.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="21.775" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
